--- a/Docs/결과 정리.xlsx
+++ b/Docs/결과 정리.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\학교\4학년 1학기\computer vision\ComputerVision__2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\학교\4학년 1학기\computer vision\ComputerVision__2023\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2111FC8E-BAC5-4311-B690-C5614A51903D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7EA52D-8741-4B72-B54C-8B1835980A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D5EFDCDB-2E73-46C4-902E-C84460D7443E}"/>
   </bookViews>
@@ -160,12 +160,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -175,6 +169,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -495,7 +495,7 @@
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -505,105 +505,117 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>87.25</v>
+      </c>
+      <c r="E3" s="1">
+        <v>87.41</v>
+      </c>
+      <c r="F3" s="1">
+        <v>88.08</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6"/>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>91.68</v>
+      </c>
+      <c r="E4" s="1">
+        <v>91.71</v>
+      </c>
+      <c r="F4" s="4">
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6"/>
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D5" s="1">
         <v>94.42</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E5" s="1">
         <v>94.51</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F5" s="4">
         <v>94.4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+    <row r="6" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6"/>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>94.41</v>
+      </c>
+      <c r="E6" s="1">
+        <v>94.54</v>
+      </c>
+      <c r="F6" s="1">
+        <v>94.28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
-        <v>87.25</v>
-      </c>
-      <c r="E4" s="3">
-        <v>87.41</v>
-      </c>
-      <c r="F4" s="3">
-        <v>88.08</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Docs/결과 정리.xlsx
+++ b/Docs/결과 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\학교\4학년 1학기\computer vision\ComputerVision__2023\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7EA52D-8741-4B72-B54C-8B1835980A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15A9825-CADC-405D-868A-ECE907014170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D5EFDCDB-2E73-46C4-902E-C84460D7443E}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{D5EFDCDB-2E73-46C4-902E-C84460D7443E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Data 
 Augmentation
@@ -77,6 +77,10 @@
     <t>5 : 4 : 1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -115,12 +119,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -155,17 +177,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -177,6 +193,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -184,6 +215,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -193,6 +229,5097 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sigmoid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2 : 1 : 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 : 3 : 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 : 4 : 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>87.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C434-4BDC-AB3A-FADE080EE544}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="74851744"/>
+        <c:axId val="74852224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="74851744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1400"/>
+                  <a:t>Learning rate ratio</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.40666193463033024"/>
+              <c:y val="0.89054316060736938"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74852224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="74852224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="87"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1400"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74851744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tanh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2 : 1 : 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 : 3 : 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 : 4 : 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>91.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.71</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>91.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD75-4DFD-94D4-47F38F2AB879}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="74851744"/>
+        <c:axId val="74852224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="74851744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Learning rate ratio</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74852224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="74852224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1400"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74851744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ReLu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2 : 1 : 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 : 3 : 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 : 4 : 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>94.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.51</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>94.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2118-4AE7-8F83-E9522E1CC530}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="74851744"/>
+        <c:axId val="74852224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="74851744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Learning rate ratio</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74852224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="74852224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1400"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74851744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LeakyReLU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2 : 1 : 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 : 3 : 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 : 4 : 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>94.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4FA7-4F7F-8545-9D26C5D6EA6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="74851744"/>
+        <c:axId val="74852224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="74851744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Learning rate ratio</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74852224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="74852224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1400"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74851744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Activation Function</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 : 1 : 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$3:$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sigmoid</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>tanh</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ReLu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LeakyReLU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>87.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C54D-45CB-B55C-384AB7F39280}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5 : 3 : 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$3:$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sigmoid</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>tanh</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ReLu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LeakyReLU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>87.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C54D-45CB-B55C-384AB7F39280}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5 : 4 : 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$3:$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sigmoid</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>tanh</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ReLu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LeakyReLU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>88.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>94.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C54D-45CB-B55C-384AB7F39280}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="129358416"/>
+        <c:axId val="129359376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="129358416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="129359376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="129359376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="129358416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>187613</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>41069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>184727</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>23091</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEB9D272-099A-E898-113E-DFA75584B4AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>138545</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>135659</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>166748</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58271BD8-5EF6-4139-B9C1-0C62AD985CE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>435264</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>29647</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="차트 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCAE9E7F-E977-431F-BDE7-4E6E3CD1B7FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>435264</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>124897</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="차트 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77342520-6D96-4437-8C0A-A93F093ADF2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>547688</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="차트 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B430EE7B-903A-BFC3-B778-B1CBFEA64A5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -492,34 +5619,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0B2E49-0B31-4E68-B177-EE9FE632ACC0}">
-  <dimension ref="B2:F10"/>
+  <dimension ref="B2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AI28" sqref="AI28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
     <col min="3" max="6" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
+    <row r="2" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
-        <v>0</v>
+    <row r="3" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -534,8 +5661,8 @@
         <v>88.08</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6"/>
+    <row r="4" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="4"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -545,53 +5672,59 @@
       <c r="E4" s="1">
         <v>91.71</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>91.7</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6"/>
+    <row r="5" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="4"/>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="8">
         <v>94.42</v>
       </c>
       <c r="E5" s="1">
         <v>94.51</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>94.4</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
+    <row r="6" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1">
         <v>94.41</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="9">
         <v>94.54</v>
       </c>
       <c r="F6" s="1">
         <v>94.28</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
-        <v>1</v>
+    <row r="7" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="D7" s="1">
+        <v>86.94</v>
+      </c>
+      <c r="E7" s="1">
+        <v>88.07</v>
+      </c>
+      <c r="F7" s="1">
+        <v>87.16</v>
+      </c>
     </row>
-    <row r="8" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
+    <row r="8" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="4"/>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -599,23 +5732,40 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
+    <row r="9" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="4"/>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="D9" s="1">
+        <v>93.12</v>
+      </c>
+      <c r="E9" s="1">
+        <v>93.51</v>
+      </c>
+      <c r="F9" s="1">
+        <v>93.15</v>
+      </c>
     </row>
-    <row r="10" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
+    <row r="10" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="D10" s="1">
+        <v>93.22</v>
+      </c>
+      <c r="E10" s="1">
+        <v>93.51</v>
+      </c>
+      <c r="F10" s="1">
+        <v>93.45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -624,5 +5774,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/결과 정리.xlsx
+++ b/Docs/결과 정리.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\학교\4학년 1학기\computer vision\ComputerVision__2023\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15A9825-CADC-405D-868A-ECE907014170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C2D407-A8E2-479D-8F96-9F2F298BFB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{D5EFDCDB-2E73-46C4-902E-C84460D7443E}"/>
+    <workbookView xWindow="-19298" yWindow="-1905" windowWidth="19396" windowHeight="11475" xr2:uid="{D5EFDCDB-2E73-46C4-902E-C84460D7443E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,13 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
-  <si>
-    <t>Data 
-Augmentation
-O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="15">
   <si>
     <t>Data 
 Augmentation
@@ -78,7 +73,36 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>S</t>
+    <t>Data 
+Augmentation
+(crop + flip)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data 
+Augmentation
+(crop + flip + 
+color + blur )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D/A X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D/A 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D/A 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReLU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leakyReLU</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +143,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,8 +168,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -168,6 +198,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -177,7 +259,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -185,12 +267,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -205,7 +281,43 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -594,6 +706,465 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>LeakyReLU</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D/A X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$31:$E$31</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2 : 1 : 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 : 3 : 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 : 4 : 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$32:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>94.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CBF5-4E03-A090-40BD7E0F200B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D/A 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$31:$E$31</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2 : 1 : 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 : 3 : 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 : 4 : 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$33:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>93.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CBF5-4E03-A090-40BD7E0F200B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D/A 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$31:$E$31</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2 : 1 : 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 : 3 : 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 : 4 : 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$34:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>94.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CBF5-4E03-A090-40BD7E0F200B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="159734159"/>
+        <c:axId val="159736079"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="159734159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="159736079"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="159736079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="159734159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2364,7 +2935,1734 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>ReLU,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t> 5: 4: 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$H$2:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>D/A X</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>D/A 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D/A 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$2:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.15</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>95.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C9EB-4C44-9157-C7060DE7E5B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="129546895"/>
+        <c:axId val="129571375"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="129546895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="129571375"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="129571375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="129546895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Sigmoid</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D/A X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$16:$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2 : 1 : 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 : 3 : 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 : 4 : 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$17:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>87.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F463-425A-85F0-A4D2399D2828}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D/A 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$16:$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2 : 1 : 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 : 3 : 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 : 4 : 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$18:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>86.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F463-425A-85F0-A4D2399D2828}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D/A 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$16:$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2 : 1 : 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 : 3 : 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 : 4 : 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$19:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>88.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F463-425A-85F0-A4D2399D2828}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="159734159"/>
+        <c:axId val="159736079"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="159734159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="159736079"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="159736079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="159734159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ReLU</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D/A X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$21:$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2 : 1 : 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 : 3 : 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 : 4 : 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$22:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>94.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.51</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>94.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A9E-43AB-88A2-26C2D1632629}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D/A 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$21:$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2 : 1 : 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 : 3 : 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 : 4 : 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>93.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1A9E-43AB-88A2-26C2D1632629}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D/A 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$21:$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2 : 1 : 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 : 3 : 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 : 4 : 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$24:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>94.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.99</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>95.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1A9E-43AB-88A2-26C2D1632629}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="159734159"/>
+        <c:axId val="159736079"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="159734159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="159736079"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="159736079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="159734159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>tanh</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D/A X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$26:$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2 : 1 : 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 : 3 : 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 : 4 : 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$27:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>91.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.71</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>91.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-860A-4176-AFE2-C6571DEE4F9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D/A 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$26:$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2 : 1 : 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 : 3 : 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 : 4 : 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$28:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>91.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-860A-4176-AFE2-C6571DEE4F9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D/A 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$26:$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2 : 1 : 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 : 3 : 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 : 4 : 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$29:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>92.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.54</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>92.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-860A-4176-AFE2-C6571DEE4F9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="159734159"/>
+        <c:axId val="159736079"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="159734159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="159736079"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="159736079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="159734159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2564,6 +4862,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3080,8 +5538,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3189,11 +5647,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3204,11 +5657,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3240,9 +5688,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3596,7 +6041,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4112,7 +6557,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4628,7 +7073,2535 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5322,6 +10295,197 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12699</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>545806</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>73102</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A71F7EB4-A652-1BF8-D3D5-9577BC758138}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1054101</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>128361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>249465</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="차트 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA66588-FB32-CE73-8533-0A88A44B92B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1090221</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>269339</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>106466</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="차트 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{360F42FF-E07E-4140-980D-29A1A5AD7644}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>427181</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>103910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>173552</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101642</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="차트 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88DE6C62-01C0-4443-B8A6-5FE95C46857B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>450273</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>183573</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>156194</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="차트 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A9EAAB-FD55-4C3B-B9BE-A53BBE1C7CC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -5619,37 +10783,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0B2E49-0B31-4E68-B177-EE9FE632ACC0}">
-  <dimension ref="B2:F13"/>
+  <dimension ref="B2:F14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AI28" sqref="AI28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
     <col min="3" max="6" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+    <row r="2" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
+    <row r="3" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
         <v>87.25</v>
@@ -5661,10 +10825,10 @@
         <v>88.08</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="4"/>
+    <row r="4" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
         <v>91.68</v>
@@ -5676,12 +10840,12 @@
         <v>91.7</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="4"/>
+    <row r="5" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="8"/>
       <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
         <v>94.42</v>
       </c>
       <c r="E5" s="1">
@@ -5691,51 +10855,57 @@
         <v>94.4</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="4"/>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1">
+    <row r="6" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12">
         <v>94.41</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="16">
         <v>94.54</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="12">
         <v>94.28</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="7" spans="2:6" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="14">
+        <v>86.94</v>
+      </c>
+      <c r="E7" s="14">
+        <v>88.07</v>
+      </c>
+      <c r="F7" s="14">
+        <v>87.16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="8"/>
+      <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="1">
-        <v>86.94</v>
-      </c>
-      <c r="E7" s="1">
-        <v>88.07</v>
-      </c>
-      <c r="F7" s="1">
-        <v>87.16</v>
+      <c r="D8" s="1">
+        <v>91.35</v>
+      </c>
+      <c r="E8" s="1">
+        <v>90.97</v>
+      </c>
+      <c r="F8" s="1">
+        <v>91.28</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="4"/>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="4"/>
+    <row r="9" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
       <c r="C9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
         <v>93.12</v>
@@ -5747,30 +10917,558 @@
         <v>93.15</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="4"/>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1">
+    <row r="10" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="12">
         <v>93.22</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="12">
         <v>93.51</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="12">
         <v>93.45</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="E13" t="s">
-        <v>9</v>
+    <row r="11" spans="2:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10">
+        <v>88.92</v>
+      </c>
+      <c r="E11" s="19">
+        <v>89</v>
+      </c>
+      <c r="F11" s="10">
+        <v>89.12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>92.12</v>
+      </c>
+      <c r="E12" s="1">
+        <v>92.54</v>
+      </c>
+      <c r="F12" s="2">
+        <v>92.84</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>94.98</v>
+      </c>
+      <c r="E13" s="1">
+        <v>94.99</v>
+      </c>
+      <c r="F13" s="18">
+        <v>95.14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>94.68</v>
+      </c>
+      <c r="E14" s="17">
+        <v>94.92</v>
+      </c>
+      <c r="F14" s="1">
+        <v>94.77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98091B7-DE10-4063-8431-B704D93BE5F3}">
+  <dimension ref="B2:I34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2">
+        <v>94.4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>87.25</v>
+      </c>
+      <c r="E3" s="1">
+        <v>87.41</v>
+      </c>
+      <c r="F3" s="1">
+        <v>88.08</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1">
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>91.68</v>
+      </c>
+      <c r="E4" s="1">
+        <v>91.71</v>
+      </c>
+      <c r="F4" s="2">
+        <v>91.7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="18">
+        <v>95.14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="8"/>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>94.42</v>
+      </c>
+      <c r="E5" s="1">
+        <v>94.51</v>
+      </c>
+      <c r="F5" s="2">
+        <v>94.4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12">
+        <v>94.41</v>
+      </c>
+      <c r="E6" s="16">
+        <v>94.54</v>
+      </c>
+      <c r="F6" s="12">
+        <v>94.28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="14">
+        <v>86.94</v>
+      </c>
+      <c r="E7" s="14">
+        <v>88.07</v>
+      </c>
+      <c r="F7" s="14">
+        <v>87.16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="8"/>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>91.35</v>
+      </c>
+      <c r="E8" s="1">
+        <v>90.97</v>
+      </c>
+      <c r="F8" s="1">
+        <v>91.28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>93.12</v>
+      </c>
+      <c r="E9" s="1">
+        <v>93.51</v>
+      </c>
+      <c r="F9" s="1">
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="12">
+        <v>93.22</v>
+      </c>
+      <c r="E10" s="12">
+        <v>93.51</v>
+      </c>
+      <c r="F10" s="12">
+        <v>93.45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10">
+        <v>88.92</v>
+      </c>
+      <c r="E11" s="19">
+        <v>89</v>
+      </c>
+      <c r="F11" s="10">
+        <v>89.12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>92.12</v>
+      </c>
+      <c r="E12" s="1">
+        <v>92.54</v>
+      </c>
+      <c r="F12" s="2">
+        <v>92.84</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>94.98</v>
+      </c>
+      <c r="E13" s="1">
+        <v>94.99</v>
+      </c>
+      <c r="F13" s="18">
+        <v>95.14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>94.68</v>
+      </c>
+      <c r="E14" s="17">
+        <v>94.92</v>
+      </c>
+      <c r="F14" s="1">
+        <v>94.77</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1">
+        <v>87.25</v>
+      </c>
+      <c r="D17" s="1">
+        <v>87.41</v>
+      </c>
+      <c r="E17" s="1">
+        <v>88.08</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="14">
+        <v>86.94</v>
+      </c>
+      <c r="D18" s="14">
+        <v>88.07</v>
+      </c>
+      <c r="E18" s="14">
+        <v>87.16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="10">
+        <v>88.92</v>
+      </c>
+      <c r="D19" s="10">
+        <v>89</v>
+      </c>
+      <c r="E19" s="10">
+        <v>89.12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="6">
+        <v>94.42</v>
+      </c>
+      <c r="D22" s="1">
+        <v>94.51</v>
+      </c>
+      <c r="E22" s="2">
+        <v>94.4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1">
+        <v>93.12</v>
+      </c>
+      <c r="D23" s="1">
+        <v>93.51</v>
+      </c>
+      <c r="E23" s="1">
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1">
+        <v>94.98</v>
+      </c>
+      <c r="D24" s="1">
+        <v>94.99</v>
+      </c>
+      <c r="E24" s="18">
+        <v>95.14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1">
+        <v>91.68</v>
+      </c>
+      <c r="D27" s="1">
+        <v>91.71</v>
+      </c>
+      <c r="E27" s="2">
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1">
+        <v>91.35</v>
+      </c>
+      <c r="D28" s="1">
+        <v>90.97</v>
+      </c>
+      <c r="E28" s="1">
+        <v>91.28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1">
+        <v>92.12</v>
+      </c>
+      <c r="D29" s="1">
+        <v>92.54</v>
+      </c>
+      <c r="E29" s="2">
+        <v>92.84</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="12">
+        <v>94.41</v>
+      </c>
+      <c r="D32" s="16">
+        <v>94.54</v>
+      </c>
+      <c r="E32" s="12">
+        <v>94.28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="12">
+        <v>93.22</v>
+      </c>
+      <c r="D33" s="12">
+        <v>93.51</v>
+      </c>
+      <c r="E33" s="12">
+        <v>93.45</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1">
+        <v>94.68</v>
+      </c>
+      <c r="D34" s="17">
+        <v>94.92</v>
+      </c>
+      <c r="E34" s="1">
+        <v>94.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
